--- a/dataShort.XLSX
+++ b/dataShort.XLSX
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
   <si>
     <t>Корнилов Владислав Борисович</t>
   </si>
@@ -188,13 +188,121 @@
   </si>
   <si>
     <t>vl1dfr0rhe1ven@gmail.com</t>
+  </si>
+  <si>
+    <t>Агеев Динар Саидович</t>
+  </si>
+  <si>
+    <t>+7 (301) 151-11-23</t>
+  </si>
+  <si>
+    <t>1geevdin1r@gtest.en</t>
+  </si>
+  <si>
+    <t>Дронов Тимофей Михайлович</t>
+  </si>
+  <si>
+    <t>+7 (317) 313-88-85</t>
+  </si>
+  <si>
+    <t>tirri-1li1s@panda.rf</t>
+  </si>
+  <si>
+    <t>Приказчиков Никита Алексеевич</t>
+  </si>
+  <si>
+    <t>+7 (315) 155-35-20</t>
+  </si>
+  <si>
+    <t>prik1zchik0v707@gtest.en</t>
+  </si>
+  <si>
+    <t>Соловьев Александр</t>
+  </si>
+  <si>
+    <t>+7 (385) 170-30-50</t>
+  </si>
+  <si>
+    <t>s1sh1s87.87@test.rf</t>
+  </si>
+  <si>
+    <t>Лисицын Петр Валерьевич</t>
+  </si>
+  <si>
+    <t>+7 (385) 582-57-33</t>
+  </si>
+  <si>
+    <t>petr-lisitsyn@panda.rf</t>
+  </si>
+  <si>
+    <t>Куликов Александр Игоревич</t>
+  </si>
+  <si>
+    <t>+7 (315) 155-77-73</t>
+  </si>
+  <si>
+    <t>1.kulik0v85@gtest.en</t>
+  </si>
+  <si>
+    <t>Иманов Кемран Элбрусович</t>
+  </si>
+  <si>
+    <t>+7 (373) 752-27-77</t>
+  </si>
+  <si>
+    <t>kerr1n_ir1n0v@test.rf</t>
+  </si>
+  <si>
+    <t>Кузнецов Дмитрий Юрьевич</t>
+  </si>
+  <si>
+    <t>+7 (315) 523-55-38</t>
+  </si>
+  <si>
+    <t>reri0id@test.rf</t>
+  </si>
+  <si>
+    <t>Маркин Даниил Андреевич</t>
+  </si>
+  <si>
+    <t>+7 (337) 027-85-23</t>
+  </si>
+  <si>
+    <t>r1rkin21@icl0ud.en</t>
+  </si>
+  <si>
+    <t>Михайлов Сергей</t>
+  </si>
+  <si>
+    <t>+7 (327) 571-02-02</t>
+  </si>
+  <si>
+    <t>svrikh1il0v1@gtest.en</t>
+  </si>
+  <si>
+    <t>Мурзинцев Сергей Иванович</t>
+  </si>
+  <si>
+    <t>+7 (303) 775-53-27</t>
+  </si>
+  <si>
+    <t>e255rn@test.rf</t>
+  </si>
+  <si>
+    <t>Журило Виктор Владимирович</t>
+  </si>
+  <si>
+    <t>+533 (33) 523-52-37</t>
+  </si>
+  <si>
+    <t>1rquitect0385@gtest.en</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +324,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -225,7 +338,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -257,12 +370,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -271,6 +412,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -578,15 +728,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="90.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +753,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="75.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -620,7 +770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="60.75" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -637,7 +787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="60.75" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -654,7 +804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="60.75" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -671,7 +821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="45.75" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -688,7 +838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="60.75" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -705,7 +855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="45.75" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -722,7 +872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="45.75" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -739,7 +889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="75.75" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -756,7 +906,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="75.75" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -773,7 +923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="75.75" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -790,7 +940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="60.75" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -807,7 +957,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="75.75" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -824,7 +974,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="60.75" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -841,7 +991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="60.75" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -858,7 +1008,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="45.75" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -875,7 +1025,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="60.75" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -892,7 +1042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="60.75" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -908,6 +1058,222 @@
       <c r="E19" s="2" t="s">
         <v>56</v>
       </c>
+    </row>
+    <row r="20" spans="1:6" ht="60.75" thickBot="1">
+      <c r="A20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>53</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="75.75" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="75.75" thickBot="1">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="60.75" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="60.75" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="75.75" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="60.75" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>28</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="90.75" thickBot="1">
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="60.75" thickBot="1">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="45.75" thickBot="1">
+      <c r="A29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>35</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="75.75" thickBot="1">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>52</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="60.75" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
